--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC3.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC3.XLSX
@@ -173,10 +173,10 @@
     <t>IQ_DOC3</t>
   </si>
   <si>
-    <t>RODOLFO LUIZ DE MATOS</t>
+    <t>JOSÉ DE CASTRO DA SILVA JUNIOR</t>
   </si>
   <si>
-    <t>Matr.: 3416</t>
+    <t>Matr.: 3345</t>
   </si>
   <si>
     <r>
@@ -6326,7 +6326,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>RODOLFO LUIZ DE MATOS</v>
+        <v>JOSÉ DE CASTRO DA SILVA JUNIOR</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6415,7 +6415,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 3416</v>
+        <v>Matr.: 3345</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
